--- a/Collected Data/Processed data.xlsx
+++ b/Collected Data/Processed data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="255" windowWidth="20115" windowHeight="7365" tabRatio="950" firstSheet="10" activeTab="21"/>
+    <workbookView xWindow="240" yWindow="255" windowWidth="20115" windowHeight="7365" tabRatio="950"/>
   </bookViews>
   <sheets>
     <sheet name="Explanations of the table" sheetId="2" r:id="rId1"/>
@@ -894,7 +894,7 @@
   <sheetPr codeName="Blad1"/>
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11:I11"/>
     </sheetView>
   </sheetViews>
@@ -13861,8 +13861,8 @@
   <sheetPr codeName="Blad21"/>
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:S2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14913,8 +14913,8 @@
   <sheetPr codeName="Blad22"/>
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:S2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15919,13 +15919,13 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -36388,7 +36388,7 @@
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:I11"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37458,43 +37458,43 @@
       </c>
       <c r="B5">
         <f ca="1">RAND()</f>
-        <v>0.70676861694495074</v>
+        <v>0.35985611709223708</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:K5" ca="1" si="0">RAND()</f>
-        <v>0.59067972079305953</v>
+        <v>0.70320844831524909</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81596060893830624</v>
+        <v>0.31410957671630735</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84656576892688074</v>
+        <v>0.84522649086871271</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71549170342266755</v>
+        <v>0.90412562698730814</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17327727034307372</v>
+        <v>0.20840844632929745</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40510704835846822</v>
+        <v>0.25669051845063628</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73714860465202603</v>
+        <v>0.15225148196787708</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72687136463978641</v>
+        <v>0.28159886846124849</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84647841517979316</v>
+        <v>0.22493636234747938</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -37503,43 +37503,43 @@
       </c>
       <c r="B6">
         <f ca="1">(B5-0.5)*2</f>
-        <v>0.41353723388990149</v>
+        <v>-0.28028776581552584</v>
       </c>
       <c r="C6">
         <f t="shared" ref="C6:K6" ca="1" si="1">(C5-0.5)*2</f>
-        <v>0.18135944158611905</v>
+        <v>0.40641689663049818</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63192121787661248</v>
+        <v>-0.3717808465673853</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69313153785376147</v>
+        <v>0.69045298173742542</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43098340684533509</v>
+        <v>0.80825125397461628</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.65344545931385256</v>
+        <v>-0.5831831073414051</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.18978590328306355</v>
+        <v>-0.48661896309872743</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47429720930405206</v>
+        <v>-0.69549703606424584</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45374272927957282</v>
+        <v>-0.43680226307750303</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69295683035958633</v>
+        <v>-0.55012727530504124</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -37578,43 +37578,43 @@
       </c>
       <c r="B9">
         <f ca="1">$B$3+$B$4*B6</f>
-        <v>6.368089847515094</v>
+        <v>5.2471812562979618</v>
       </c>
       <c r="C9">
         <f t="shared" ref="C9:K9" ca="1" si="2">$B$3+$B$4*C6</f>
-        <v>5.9929951446813403</v>
+        <v>6.3565865906278143</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="2"/>
-        <v>6.7208999710172126</v>
+        <v>5.0993696607295931</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="2"/>
-        <v>6.8197882693095284</v>
+        <v>6.8154609294700403</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="2"/>
-        <v>6.3962750025007296</v>
+        <v>7.0057698624679308</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="2"/>
-        <v>4.6443265527363602</v>
+        <v>4.7578388562689167</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="2"/>
-        <v>5.3933914898249444</v>
+        <v>4.9138430056309348</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="2"/>
-        <v>6.4662505918998869</v>
+        <v>4.57639015137614</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="2"/>
-        <v>6.433043813162854</v>
+        <v>4.9943243475594974</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="2"/>
-        <v>6.8195060207147762</v>
+        <v>4.8112421872747495</v>
       </c>
     </row>
   </sheetData>
